--- a/xlsx/长江_intext.xlsx
+++ b/xlsx/长江_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1807">
   <si>
     <t>长江</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B1%9F_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>長江 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_长江</t>
+    <t>长江 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_长江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BF%E5%A1%98%E5%B3%A1</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9D%B1%E9%83%A8</t>
   </si>
   <si>
-    <t>中國東部</t>
+    <t>中国东部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
   </si>
   <si>
-    <t>海灣</t>
+    <t>海湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%8C%97</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%B7%9E%E5%8F%A3</t>
   </si>
   <si>
-    <t>吳淞口</t>
+    <t>吴淞口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%84%E9%98%B3</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%B9%E8%B2%A2</t>
   </si>
   <si>
-    <t>禹貢</t>
+    <t>禹贡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B7%E5%B1%B1</t>
@@ -1685,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E6%B0%B4</t>
   </si>
   <si>
-    <t>貢水</t>
+    <t>贡水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%B1%9F_(%E8%B4%A1%E6%B0%B4%E6%94%AF%E6%B5%81)</t>
@@ -2003,13 +2003,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E9%95%B7%E6%B1%9F%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>南京長江大橋</t>
+    <t>南京长江大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E6%A9%8B</t>
   </si>
   <si>
-    <t>浮橋</t>
+    <t>浮桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B1%89</t>
@@ -2051,9 +2051,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E9%95%BF%E6%B1%9F%E5%A4%A7%E6%A1%A5</t>
   </si>
   <si>
-    <t>南京长江大桥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9D%E5%9F%8E%E9%95%BF%E6%B1%9F%E5%A4%A7%E6%A1%A5</t>
   </si>
   <si>
@@ -2099,45 +2096,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%B3%93</t>
   </si>
   <si>
-    <t>宜賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%98%E5%B7%9E</t>
   </si>
   <si>
-    <t>瀘州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6%E5%B8%82</t>
   </si>
   <si>
-    <t>重慶市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6</t>
   </si>
   <si>
-    <t>重慶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>萬州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>荊州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B3%E9%99%BD</t>
   </si>
   <si>
-    <t>岳陽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%B8%E5%AE%81</t>
   </si>
   <si>
@@ -2147,63 +2123,33 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%BC%A2</t>
   </si>
   <si>
-    <t>武漢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%B2%A1</t>
   </si>
   <si>
-    <t>黃岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3</t>
   </si>
   <si>
-    <t>黃石</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%85%B6</t>
   </si>
   <si>
-    <t>安慶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%99%B5</t>
   </si>
   <si>
-    <t>銅陵</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%95%AA%E6%B9%96</t>
   </si>
   <si>
-    <t>蕪湖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%9E%8D%E5%B1%B1</t>
   </si>
   <si>
-    <t>馬鞍山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87%E7%9C%81</t>
   </si>
   <si>
-    <t>江蘇省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>揚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E6%B1%9F</t>
   </si>
   <si>
-    <t>鎮江</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%B7%9E</t>
   </si>
   <si>
@@ -2285,15 +2231,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B3</t>
   </si>
   <si>
-    <t>黃河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%BE%E6%BB%84%E6%B1%9F</t>
   </si>
   <si>
-    <t>瀾滄江</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%BA%A7%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
   </si>
   <si>
@@ -2303,9 +2243,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>滅絕</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%B1%80%E8%B1%9A</t>
   </si>
   <si>
@@ -2321,19 +2258,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E5%AD%90%E9%B1%B7</t>
   </si>
   <si>
-    <t>揚子鱷</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/IUCN%E7%B4%85%E8%89%B2%E5%90%8D%E9%8C%84</t>
   </si>
   <si>
-    <t>IUCN紅色名錄</t>
+    <t>IUCN红色名录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>極危物種</t>
+    <t>极危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E4%BC%9F</t>
@@ -2357,7 +2291,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%86%A0%E4%B8%AD</t>
   </si>
   <si>
-    <t>吳冠中</t>
+    <t>吴冠中</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E7%94%BB</t>
@@ -2387,7 +2321,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E7%A5%96%E5%9C%8B_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>我的祖國 (中國)</t>
+    <t>我的祖国 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%85%85</t>
@@ -2423,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%B1%9F%E6%B0%B4%E5%88%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -2435,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B1%9F%E5%8F%B2%E5%89%8D%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>長江史前文化</t>
+    <t>长江史前文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%B1%9F%E4%B8%89%E5%B3%A1%E6%B0%B4%E5%88%A9%E6%9E%A2%E7%BA%BD%E5%B7%A5%E7%A8%8B</t>
@@ -2555,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A1%E8%87%A8%E6%B2%B3</t>
   </si>
   <si>
-    <t>御臨河</t>
+    <t>御临河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B9%E6%B2%B3</t>
@@ -2813,7 +2747,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國河流列表</t>
+    <t>中国河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%8C%97%E5%9C%B0%E5%8C%BA</t>
@@ -2855,13 +2789,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%92%99%E5%8F%A4%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>內蒙古河流列表</t>
+    <t>内蒙古河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%AF%A7%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>遼寧河流列表</t>
+    <t>辽宁河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9E%97%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2873,7 +2807,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BE%8D%E6%B1%9F%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>黑龍江河流列表</t>
+    <t>黑龙江河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
@@ -2891,7 +2825,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>江蘇河流列表</t>
+    <t>江苏河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2939,31 +2873,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E5%B7%9E%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>貴州河流列表</t>
+    <t>贵州河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%8D%97%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>雲南河流列表</t>
+    <t>云南河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>陝西河流列表</t>
+    <t>陕西河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%82%85%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>甘肅河流列表</t>
+    <t>甘肃河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E5%A4%8F%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>寧夏河流列表</t>
+    <t>宁夏河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2975,7 +2909,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>特別行政區</t>
+    <t>特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2987,7 +2921,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%A8%E6%B6%8C%E6%B2%B3</t>
   </si>
   <si>
-    <t>鴨涌河</t>
+    <t>鸭涌河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9F%8E%E5%B8%82%E5%BB%BA%E5%88%B6</t>
@@ -3149,7 +3083,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%99%E8%9C%80</t>
   </si>
   <si>
-    <t>譙蜀</t>
+    <t>谯蜀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%9C%80</t>
@@ -3437,7 +3371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%B8%81_(%E7%A8%BB%E5%9F%8E)</t>
   </si>
   <si>
-    <t>亞丁 (稻城)</t>
+    <t>亚丁 (稻城)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%9C%80</t>
@@ -3743,7 +3677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6%E9%95%B7%E6%B1%9F%E7%B4%A2%E9%81%93</t>
   </si>
   <si>
-    <t>重慶長江索道</t>
+    <t>重庆长江索道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BA%86%E5%98%89%E9%99%B5%E6%B1%9F%E7%B4%A2%E9%81%93</t>
@@ -3833,7 +3767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6%E5%A4%A7%E8%BD%9F%E7%82%B8%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>重慶大轟炸遺址</t>
+    <t>重庆大轰炸遗址</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9C%88%E4%B8%A4%E7%BF%BC</t>
@@ -4067,7 +4001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E4%BD%A0%E7%9A%84%E5%85%A8%E4%B8%96%E7%95%8C%E8%B7%AF%E9%81%8E</t>
   </si>
   <si>
-    <t>從你的全世界路過</t>
+    <t>从你的全世界路过</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BA%86%E5%B8%82%E9%87%8D%E7%82%B9%E4%B8%AD%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -4139,7 +4073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B4%A5%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>江津中學</t>
+    <t>江津中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%9C%E6%A2%81%E4%B8%AD%E5%AD%A6</t>
@@ -4451,7 +4385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%8A%E5%B1%B1_(%E5%B1%B1%E8%84%88)</t>
   </si>
   <si>
-    <t>荊山 (山脈)</t>
+    <t>荆山 (山脉)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%86%9C%E6%9E%B6</t>
@@ -4553,7 +4487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E9%A0%AD%E9%B3%A5</t>
   </si>
   <si>
-    <t>九頭鳥</t>
+    <t>九头鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E8%8F%9C</t>
@@ -4565,7 +4499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%B1%A0%E5%8C%85</t>
   </si>
   <si>
-    <t>小籠包</t>
+    <t>小笼包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B9%B2%E9%9D%A2</t>
@@ -4709,7 +4643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8D%97%E6%96%87%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>湖南文理學院</t>
+    <t>湖南文理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B9%98%E6%96%87%E5%8C%96</t>
@@ -4835,7 +4769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%87%92%E8%82%89</t>
   </si>
   <si>
-    <t>紅燒肉</t>
+    <t>红烧肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8A%E8%82%89</t>
@@ -4925,7 +4859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B6%BA%E5%B1%B1</t>
   </si>
   <si>
-    <t>九嶺山</t>
+    <t>九岭山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%A4%B7%E5%B1%B1%E8%84%89</t>
@@ -4973,13 +4907,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%8F%9C</t>
   </si>
   <si>
-    <t>贛菜</t>
+    <t>赣菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E5%8A%87</t>
   </si>
   <si>
-    <t>贛劇</t>
+    <t>赣剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%87%E8%8C%B6%E6%88%8F</t>
@@ -5033,7 +4967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>贛語</t>
+    <t>赣语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%98%8C%E8%AF%9D</t>
@@ -5189,7 +5123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%B6%8A%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>吳越文化</t>
+    <t>吴越文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E6%96%87%E5%8C%96</t>
@@ -5207,7 +5141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%BD%E5%8A%87</t>
   </si>
   <si>
-    <t>徽劇</t>
+    <t>徽剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%90%E5%89%A7</t>
@@ -5465,7 +5399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5483,7 +5417,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5495,7 +5429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -15964,7 +15898,7 @@
         <v>677</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -15990,10 +15924,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>678</v>
+      </c>
+      <c r="F350" t="s">
         <v>679</v>
-      </c>
-      <c r="F350" t="s">
-        <v>680</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -16019,10 +15953,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>680</v>
+      </c>
+      <c r="F351" t="s">
         <v>681</v>
-      </c>
-      <c r="F351" t="s">
-        <v>682</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -16048,10 +15982,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>682</v>
+      </c>
+      <c r="F352" t="s">
         <v>683</v>
-      </c>
-      <c r="F352" t="s">
-        <v>684</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -16077,10 +16011,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>684</v>
+      </c>
+      <c r="F353" t="s">
         <v>685</v>
-      </c>
-      <c r="F353" t="s">
-        <v>686</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -16106,10 +16040,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>686</v>
+      </c>
+      <c r="F354" t="s">
         <v>687</v>
-      </c>
-      <c r="F354" t="s">
-        <v>688</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -16135,10 +16069,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>688</v>
+      </c>
+      <c r="F355" t="s">
         <v>689</v>
-      </c>
-      <c r="F355" t="s">
-        <v>690</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -16164,10 +16098,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>690</v>
+      </c>
+      <c r="F356" t="s">
         <v>691</v>
-      </c>
-      <c r="F356" t="s">
-        <v>692</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -16193,10 +16127,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>48</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -16222,10 +16156,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>50</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -16251,10 +16185,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>276</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -16280,10 +16214,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>18</v>
       </c>
       <c r="G360" t="n">
         <v>3</v>
@@ -16309,10 +16243,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>54</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -16338,10 +16272,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>58</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -16367,10 +16301,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>60</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -16396,10 +16330,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -16425,10 +16359,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>62</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -16454,10 +16388,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>64</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -16483,10 +16417,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>68</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -16512,10 +16446,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>72</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -16541,10 +16475,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>76</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -16570,10 +16504,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>78</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -16599,10 +16533,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>80</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -16628,10 +16562,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>286</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -16657,10 +16591,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>86</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -16686,10 +16620,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>84</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -16715,10 +16649,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -16744,10 +16678,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -16773,10 +16707,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="G377" t="n">
         <v>4</v>
@@ -16802,10 +16736,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -16831,10 +16765,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -16860,10 +16794,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -16889,10 +16823,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="F381" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="G381" t="n">
         <v>7</v>
@@ -16918,10 +16852,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="F382" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -16947,10 +16881,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="F383" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -16976,10 +16910,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="F384" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -17005,10 +16939,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="F385" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -17034,10 +16968,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="F386" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -17063,10 +16997,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -17092,10 +17026,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -17121,10 +17055,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>580</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -17150,10 +17084,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>410</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -17179,10 +17113,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="F391" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -17237,10 +17171,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -17266,10 +17200,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -17295,10 +17229,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F395" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -17324,10 +17258,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>152</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -17353,10 +17287,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="F397" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -17382,10 +17316,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="F398" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -17411,10 +17345,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="F399" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -17440,10 +17374,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="F400" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="G400" t="n">
         <v>3</v>
@@ -17469,10 +17403,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="F401" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -17498,10 +17432,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F402" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -17527,10 +17461,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="F403" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -17556,10 +17490,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="F404" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -17585,10 +17519,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="F405" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -17614,10 +17548,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F406" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -17643,10 +17577,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="F407" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -17672,10 +17606,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="F408" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -17701,10 +17635,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="F409" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -17730,10 +17664,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="F410" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -17759,10 +17693,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="F411" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -17788,10 +17722,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="F412" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -17817,10 +17751,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="F413" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -17846,10 +17780,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="F414" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="G414" t="n">
         <v>3</v>
@@ -17875,10 +17809,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="F415" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -17904,10 +17838,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="F416" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -17933,10 +17867,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="F417" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -17962,10 +17896,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="F418" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -17991,10 +17925,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="F419" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -18020,10 +17954,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="F420" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -18049,10 +17983,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="F421" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -18078,10 +18012,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="F422" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -18107,10 +18041,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="F423" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -18136,10 +18070,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="F424" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -18165,10 +18099,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="F425" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -18194,10 +18128,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="F426" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -18223,10 +18157,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="F427" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -18252,10 +18186,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="F428" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -18281,10 +18215,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="F429" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -18310,10 +18244,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="F430" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -18339,10 +18273,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="F431" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -18368,10 +18302,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="F432" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -18397,10 +18331,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="F433" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -18426,10 +18360,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="F434" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -18455,10 +18389,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="F435" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -18484,10 +18418,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="F436" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -18513,10 +18447,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="F437" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -18542,10 +18476,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="F438" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -18600,10 +18534,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -18629,10 +18563,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -18658,10 +18592,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -18687,10 +18621,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -18716,10 +18650,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -18745,10 +18679,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -18774,10 +18708,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="G446" t="n">
         <v>17</v>
@@ -18803,10 +18737,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="F447" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -18832,10 +18766,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="F448" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -18861,10 +18795,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="F449" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -18890,10 +18824,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="F450" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -18919,10 +18853,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="F451" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -18948,10 +18882,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="F452" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -18977,10 +18911,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="F453" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -19006,10 +18940,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="F454" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -19035,10 +18969,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="F455" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -19064,10 +18998,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="F456" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -19093,10 +19027,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="F457" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -19122,10 +19056,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="F458" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -19151,10 +19085,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="F459" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -19180,10 +19114,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="F460" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -19267,10 +19201,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="F463" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -19296,10 +19230,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="F464" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -19325,10 +19259,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="F465" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -19354,10 +19288,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="F466" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -19383,10 +19317,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="F467" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -19412,10 +19346,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="F468" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -19441,10 +19375,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="F469" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -19470,10 +19404,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="F470" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -19499,10 +19433,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="F471" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -19528,10 +19462,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="F472" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -19557,10 +19491,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="F473" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -19586,10 +19520,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="F474" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -19615,10 +19549,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="F475" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="G475" t="n">
         <v>12</v>
@@ -19644,10 +19578,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="F476" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="G476" t="n">
         <v>2</v>
@@ -19673,10 +19607,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="F477" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -19702,10 +19636,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="F478" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -19731,10 +19665,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="F479" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -19760,10 +19694,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="F480" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -19789,10 +19723,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="F481" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -19818,10 +19752,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="F482" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -19847,10 +19781,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="F483" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -19876,10 +19810,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F484" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -19905,10 +19839,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F485" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -19934,10 +19868,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F486" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -19963,10 +19897,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="F487" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -19992,10 +19926,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="F488" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -20021,10 +19955,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="F489" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -20050,10 +19984,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="F490" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -20079,10 +20013,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="F491" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -20108,10 +20042,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="F492" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -20137,10 +20071,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="F493" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -20166,10 +20100,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="F494" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="G494" t="n">
         <v>4</v>
@@ -20195,10 +20129,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="F495" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="G495" t="n">
         <v>4</v>
@@ -20224,10 +20158,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="F496" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="G496" t="n">
         <v>3</v>
@@ -20253,10 +20187,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="F497" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -20282,10 +20216,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="F498" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -20311,10 +20245,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="F499" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -20340,10 +20274,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="F500" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -20369,10 +20303,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="F501" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -20398,10 +20332,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="F502" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -20427,10 +20361,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="F503" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="G503" t="n">
         <v>3</v>
@@ -20456,10 +20390,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="F504" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -20485,10 +20419,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="F505" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -20514,10 +20448,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="F506" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -20543,10 +20477,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="F507" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -20572,10 +20506,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="F508" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -20601,10 +20535,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="F509" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -20630,10 +20564,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="F510" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="G510" t="n">
         <v>2</v>
@@ -20659,10 +20593,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="F511" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -20688,10 +20622,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="F512" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -20717,10 +20651,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="F513" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -20775,10 +20709,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="F515" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -20804,10 +20738,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="F516" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -20833,10 +20767,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="F517" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -20862,10 +20796,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="F518" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -20891,10 +20825,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="F519" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -20920,10 +20854,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="F520" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="G520" t="n">
         <v>7</v>
@@ -21007,10 +20941,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="F523" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="G523" t="n">
         <v>32</v>
@@ -21036,10 +20970,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="F524" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="G524" t="n">
         <v>3</v>
@@ -21065,10 +20999,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="F525" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -21094,10 +21028,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="F526" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -21123,10 +21057,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="F527" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -21152,10 +21086,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="F528" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="G528" t="n">
         <v>10</v>
@@ -21181,10 +21115,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="F529" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -21210,10 +21144,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="F530" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -21239,10 +21173,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="F531" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -21297,10 +21231,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
       <c r="F533" t="s">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -21326,10 +21260,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="F534" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="G534" t="n">
         <v>3</v>
@@ -21355,10 +21289,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="F535" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -21384,10 +21318,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="F536" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -21413,10 +21347,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="F537" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="G537" t="n">
         <v>18</v>
@@ -21442,10 +21376,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="F538" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="G538" t="n">
         <v>11</v>
@@ -21471,10 +21405,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="F539" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -21500,10 +21434,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="F540" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -21529,10 +21463,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="F541" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -21558,10 +21492,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="F542" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -21587,10 +21521,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="F543" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -21616,10 +21550,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="F544" t="s">
-        <v>1048</v>
+        <v>1026</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -21645,10 +21579,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
       <c r="F545" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -21674,10 +21608,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="F546" t="s">
-        <v>1052</v>
+        <v>1030</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -21703,10 +21637,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1053</v>
+        <v>1031</v>
       </c>
       <c r="F547" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -21732,10 +21666,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="F548" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -21761,10 +21695,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1057</v>
+        <v>1035</v>
       </c>
       <c r="F549" t="s">
-        <v>1058</v>
+        <v>1036</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -21790,10 +21724,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1059</v>
+        <v>1037</v>
       </c>
       <c r="F550" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -21819,10 +21753,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1061</v>
+        <v>1039</v>
       </c>
       <c r="F551" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -21848,10 +21782,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="F552" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -21877,10 +21811,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="F553" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -21906,10 +21840,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
       <c r="F554" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -21935,10 +21869,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="F555" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -21964,10 +21898,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="F556" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -21993,10 +21927,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="F557" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -22022,10 +21956,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="F558" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -22051,10 +21985,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="F559" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -22080,10 +22014,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="F560" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -22109,10 +22043,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1081</v>
+        <v>1059</v>
       </c>
       <c r="F561" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -22138,10 +22072,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="F562" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -22167,10 +22101,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1085</v>
+        <v>1063</v>
       </c>
       <c r="F563" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -22196,10 +22130,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
       <c r="F564" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -22225,10 +22159,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
       <c r="F565" t="s">
-        <v>1090</v>
+        <v>1068</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -22254,10 +22188,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="F566" t="s">
-        <v>1092</v>
+        <v>1070</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -22283,10 +22217,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="F567" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -22312,10 +22246,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
       <c r="F568" t="s">
-        <v>1096</v>
+        <v>1074</v>
       </c>
       <c r="G568" t="n">
         <v>2</v>
@@ -22341,10 +22275,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1097</v>
+        <v>1075</v>
       </c>
       <c r="F569" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -22370,10 +22304,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="F570" t="s">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -22399,10 +22333,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="F571" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -22428,10 +22362,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="F572" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="G572" t="n">
         <v>7</v>
@@ -22457,10 +22391,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="F573" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -22486,10 +22420,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="F574" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -22515,10 +22449,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="F575" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -22544,10 +22478,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="F576" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -22573,10 +22507,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="F577" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -22602,10 +22536,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="F578" t="s">
-        <v>1114</v>
+        <v>1092</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -22631,10 +22565,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="F579" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -22660,10 +22594,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="F580" t="s">
-        <v>1118</v>
+        <v>1096</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -22689,10 +22623,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="F581" t="s">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -22718,10 +22652,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1121</v>
+        <v>1099</v>
       </c>
       <c r="F582" t="s">
-        <v>1122</v>
+        <v>1100</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -22747,10 +22681,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
       <c r="F583" t="s">
-        <v>1124</v>
+        <v>1102</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -22776,10 +22710,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
       <c r="F584" t="s">
-        <v>1126</v>
+        <v>1104</v>
       </c>
       <c r="G584" t="n">
         <v>2</v>
@@ -22805,10 +22739,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1127</v>
+        <v>1105</v>
       </c>
       <c r="F585" t="s">
-        <v>1128</v>
+        <v>1106</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -22834,10 +22768,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="F586" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -22863,10 +22797,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="F587" t="s">
-        <v>1132</v>
+        <v>1110</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -22892,10 +22826,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="F588" t="s">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -22921,10 +22855,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="F589" t="s">
-        <v>1136</v>
+        <v>1114</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -22950,10 +22884,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1137</v>
+        <v>1115</v>
       </c>
       <c r="F590" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -22979,10 +22913,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="F591" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -23008,10 +22942,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="F592" t="s">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -23037,10 +22971,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="F593" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -23066,10 +23000,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1145</v>
+        <v>1123</v>
       </c>
       <c r="F594" t="s">
-        <v>1146</v>
+        <v>1124</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -23095,10 +23029,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1147</v>
+        <v>1125</v>
       </c>
       <c r="F595" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="G595" t="n">
         <v>2</v>
@@ -23124,10 +23058,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1149</v>
+        <v>1127</v>
       </c>
       <c r="F596" t="s">
-        <v>1150</v>
+        <v>1128</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -23153,10 +23087,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="F597" t="s">
-        <v>1152</v>
+        <v>1130</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -23182,10 +23116,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1153</v>
+        <v>1131</v>
       </c>
       <c r="F598" t="s">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -23211,10 +23145,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1155</v>
+        <v>1133</v>
       </c>
       <c r="F599" t="s">
-        <v>1156</v>
+        <v>1134</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -23240,10 +23174,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1157</v>
+        <v>1135</v>
       </c>
       <c r="F600" t="s">
-        <v>1158</v>
+        <v>1136</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -23269,10 +23203,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1159</v>
+        <v>1137</v>
       </c>
       <c r="F601" t="s">
-        <v>1160</v>
+        <v>1138</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -23298,10 +23232,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="F602" t="s">
-        <v>1162</v>
+        <v>1140</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -23327,10 +23261,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="F603" t="s">
-        <v>1164</v>
+        <v>1142</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -23356,10 +23290,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1165</v>
+        <v>1143</v>
       </c>
       <c r="F604" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -23385,10 +23319,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="F605" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -23414,10 +23348,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1169</v>
+        <v>1147</v>
       </c>
       <c r="F606" t="s">
-        <v>1170</v>
+        <v>1148</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -23443,10 +23377,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1171</v>
+        <v>1149</v>
       </c>
       <c r="F607" t="s">
-        <v>1172</v>
+        <v>1150</v>
       </c>
       <c r="G607" t="n">
         <v>2</v>
@@ -23472,10 +23406,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1173</v>
+        <v>1151</v>
       </c>
       <c r="F608" t="s">
-        <v>1174</v>
+        <v>1152</v>
       </c>
       <c r="G608" t="n">
         <v>2</v>
@@ -23501,10 +23435,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1175</v>
+        <v>1153</v>
       </c>
       <c r="F609" t="s">
-        <v>1176</v>
+        <v>1154</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -23530,10 +23464,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1177</v>
+        <v>1155</v>
       </c>
       <c r="F610" t="s">
-        <v>1178</v>
+        <v>1156</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -23559,10 +23493,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1179</v>
+        <v>1157</v>
       </c>
       <c r="F611" t="s">
-        <v>1180</v>
+        <v>1158</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -23588,10 +23522,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1181</v>
+        <v>1159</v>
       </c>
       <c r="F612" t="s">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -23617,10 +23551,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
       <c r="F613" t="s">
-        <v>1184</v>
+        <v>1162</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -23646,10 +23580,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="F614" t="s">
-        <v>1186</v>
+        <v>1164</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -23675,10 +23609,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="F615" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -23704,10 +23638,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="F616" t="s">
-        <v>1190</v>
+        <v>1168</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -23733,10 +23667,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
       <c r="F617" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -23762,10 +23696,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="F618" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -23791,10 +23725,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1195</v>
+        <v>1173</v>
       </c>
       <c r="F619" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -23820,10 +23754,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="F620" t="s">
-        <v>1198</v>
+        <v>1176</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -23849,10 +23783,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1199</v>
+        <v>1177</v>
       </c>
       <c r="F621" t="s">
-        <v>1200</v>
+        <v>1178</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -23878,10 +23812,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1201</v>
+        <v>1179</v>
       </c>
       <c r="F622" t="s">
-        <v>1202</v>
+        <v>1180</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -23907,10 +23841,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1203</v>
+        <v>1181</v>
       </c>
       <c r="F623" t="s">
-        <v>1204</v>
+        <v>1182</v>
       </c>
       <c r="G623" t="n">
         <v>16</v>
@@ -23936,10 +23870,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1205</v>
+        <v>1183</v>
       </c>
       <c r="F624" t="s">
-        <v>1206</v>
+        <v>1184</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -23965,10 +23899,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F625" t="s">
-        <v>1208</v>
+        <v>1186</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -23994,10 +23928,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1209</v>
+        <v>1187</v>
       </c>
       <c r="F626" t="s">
-        <v>1210</v>
+        <v>1188</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -24023,10 +23957,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1211</v>
+        <v>1189</v>
       </c>
       <c r="F627" t="s">
-        <v>1212</v>
+        <v>1190</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -24052,10 +23986,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1213</v>
+        <v>1191</v>
       </c>
       <c r="F628" t="s">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -24081,10 +24015,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
       <c r="F629" t="s">
-        <v>1216</v>
+        <v>1194</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -24110,10 +24044,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1217</v>
+        <v>1195</v>
       </c>
       <c r="F630" t="s">
-        <v>1218</v>
+        <v>1196</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -24139,10 +24073,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1219</v>
+        <v>1197</v>
       </c>
       <c r="F631" t="s">
-        <v>1220</v>
+        <v>1198</v>
       </c>
       <c r="G631" t="n">
         <v>5</v>
@@ -24168,10 +24102,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1221</v>
+        <v>1199</v>
       </c>
       <c r="F632" t="s">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -24197,10 +24131,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1223</v>
+        <v>1201</v>
       </c>
       <c r="F633" t="s">
-        <v>1224</v>
+        <v>1202</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -24226,10 +24160,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1225</v>
+        <v>1203</v>
       </c>
       <c r="F634" t="s">
-        <v>1226</v>
+        <v>1204</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -24255,10 +24189,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1227</v>
+        <v>1205</v>
       </c>
       <c r="F635" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -24284,10 +24218,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1229</v>
+        <v>1207</v>
       </c>
       <c r="F636" t="s">
-        <v>1230</v>
+        <v>1208</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -24313,10 +24247,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1231</v>
+        <v>1209</v>
       </c>
       <c r="F637" t="s">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -24342,10 +24276,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1233</v>
+        <v>1211</v>
       </c>
       <c r="F638" t="s">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -24371,10 +24305,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
       <c r="F639" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -24400,10 +24334,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
       <c r="F640" t="s">
-        <v>1238</v>
+        <v>1216</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -24429,10 +24363,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1239</v>
+        <v>1217</v>
       </c>
       <c r="F641" t="s">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -24458,10 +24392,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1241</v>
+        <v>1219</v>
       </c>
       <c r="F642" t="s">
-        <v>1242</v>
+        <v>1220</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -24487,10 +24421,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1243</v>
+        <v>1221</v>
       </c>
       <c r="F643" t="s">
-        <v>1244</v>
+        <v>1222</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -24516,10 +24450,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1245</v>
+        <v>1223</v>
       </c>
       <c r="F644" t="s">
-        <v>1246</v>
+        <v>1224</v>
       </c>
       <c r="G644" t="n">
         <v>2</v>
@@ -24545,10 +24479,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1247</v>
+        <v>1225</v>
       </c>
       <c r="F645" t="s">
-        <v>1248</v>
+        <v>1226</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -24574,10 +24508,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1249</v>
+        <v>1227</v>
       </c>
       <c r="F646" t="s">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -24603,10 +24537,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1251</v>
+        <v>1229</v>
       </c>
       <c r="F647" t="s">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -24632,10 +24566,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1253</v>
+        <v>1231</v>
       </c>
       <c r="F648" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -24661,10 +24595,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
       <c r="F649" t="s">
-        <v>1256</v>
+        <v>1234</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -24690,10 +24624,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
       <c r="F650" t="s">
-        <v>1258</v>
+        <v>1236</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -24719,10 +24653,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="F651" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -24748,10 +24682,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="F652" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -24777,10 +24711,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1263</v>
+        <v>1241</v>
       </c>
       <c r="F653" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -24806,10 +24740,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1265</v>
+        <v>1243</v>
       </c>
       <c r="F654" t="s">
-        <v>1266</v>
+        <v>1244</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -24835,10 +24769,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1267</v>
+        <v>1245</v>
       </c>
       <c r="F655" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -24864,10 +24798,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="F656" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -24893,10 +24827,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1271</v>
+        <v>1249</v>
       </c>
       <c r="F657" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -24922,10 +24856,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1273</v>
+        <v>1251</v>
       </c>
       <c r="F658" t="s">
-        <v>1274</v>
+        <v>1252</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -24951,10 +24885,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="F659" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -24980,10 +24914,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1277</v>
+        <v>1255</v>
       </c>
       <c r="F660" t="s">
-        <v>1278</v>
+        <v>1256</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -25009,10 +24943,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1279</v>
+        <v>1257</v>
       </c>
       <c r="F661" t="s">
-        <v>1280</v>
+        <v>1258</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -25038,10 +24972,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1281</v>
+        <v>1259</v>
       </c>
       <c r="F662" t="s">
-        <v>1282</v>
+        <v>1260</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -25067,10 +25001,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="F663" t="s">
-        <v>1284</v>
+        <v>1262</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -25096,10 +25030,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1285</v>
+        <v>1263</v>
       </c>
       <c r="F664" t="s">
-        <v>1286</v>
+        <v>1264</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -25125,10 +25059,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1287</v>
+        <v>1265</v>
       </c>
       <c r="F665" t="s">
-        <v>1288</v>
+        <v>1266</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -25154,10 +25088,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1289</v>
+        <v>1267</v>
       </c>
       <c r="F666" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -25212,10 +25146,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="F668" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -25241,10 +25175,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1293</v>
+        <v>1271</v>
       </c>
       <c r="F669" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -25270,10 +25204,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="F670" t="s">
-        <v>1296</v>
+        <v>1274</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -25299,10 +25233,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1297</v>
+        <v>1275</v>
       </c>
       <c r="F671" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -25328,10 +25262,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1299</v>
+        <v>1277</v>
       </c>
       <c r="F672" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -25357,10 +25291,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1289</v>
+        <v>1267</v>
       </c>
       <c r="F673" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -25386,10 +25320,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
       <c r="F674" t="s">
-        <v>1302</v>
+        <v>1280</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -25415,10 +25349,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1303</v>
+        <v>1281</v>
       </c>
       <c r="F675" t="s">
-        <v>1304</v>
+        <v>1282</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -25444,10 +25378,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1305</v>
+        <v>1283</v>
       </c>
       <c r="F676" t="s">
-        <v>1306</v>
+        <v>1284</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -25473,10 +25407,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1307</v>
+        <v>1285</v>
       </c>
       <c r="F677" t="s">
-        <v>1308</v>
+        <v>1286</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -25502,10 +25436,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="F678" t="s">
-        <v>1310</v>
+        <v>1288</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -25531,10 +25465,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1311</v>
+        <v>1289</v>
       </c>
       <c r="F679" t="s">
-        <v>1312</v>
+        <v>1290</v>
       </c>
       <c r="G679" t="n">
         <v>5</v>
@@ -25560,10 +25494,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="F680" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -25589,10 +25523,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="F681" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -25618,10 +25552,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="F682" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -25647,10 +25581,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="F683" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -25676,10 +25610,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="F684" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -25705,10 +25639,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="F685" t="s">
-        <v>1320</v>
+        <v>1298</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -25734,10 +25668,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1321</v>
+        <v>1299</v>
       </c>
       <c r="F686" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
       <c r="G686" t="n">
         <v>2</v>
@@ -25763,10 +25697,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1323</v>
+        <v>1301</v>
       </c>
       <c r="F687" t="s">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -25792,10 +25726,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="F688" t="s">
-        <v>1326</v>
+        <v>1304</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -25821,10 +25755,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="F689" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -25850,10 +25784,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="F690" t="s">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -25879,10 +25813,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1331</v>
+        <v>1309</v>
       </c>
       <c r="F691" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -25966,10 +25900,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1333</v>
+        <v>1311</v>
       </c>
       <c r="F694" t="s">
-        <v>1334</v>
+        <v>1312</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -25995,10 +25929,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="F695" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -26024,10 +25958,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1337</v>
+        <v>1315</v>
       </c>
       <c r="F696" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -26053,10 +25987,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
       <c r="F697" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="G697" t="n">
         <v>4</v>
@@ -26082,10 +26016,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="F698" t="s">
-        <v>1342</v>
+        <v>1320</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -26111,10 +26045,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1343</v>
+        <v>1321</v>
       </c>
       <c r="F699" t="s">
-        <v>1344</v>
+        <v>1322</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -26140,10 +26074,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1345</v>
+        <v>1323</v>
       </c>
       <c r="F700" t="s">
-        <v>1346</v>
+        <v>1324</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -26169,10 +26103,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="F701" t="s">
-        <v>1348</v>
+        <v>1326</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -26198,10 +26132,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="F702" t="s">
-        <v>1350</v>
+        <v>1328</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -26227,10 +26161,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1351</v>
+        <v>1329</v>
       </c>
       <c r="F703" t="s">
-        <v>1352</v>
+        <v>1330</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -26256,10 +26190,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1353</v>
+        <v>1331</v>
       </c>
       <c r="F704" t="s">
-        <v>1354</v>
+        <v>1332</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -26285,10 +26219,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="F705" t="s">
-        <v>1356</v>
+        <v>1334</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -26314,10 +26248,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1357</v>
+        <v>1335</v>
       </c>
       <c r="F706" t="s">
-        <v>1358</v>
+        <v>1336</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -26343,10 +26277,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="F707" t="s">
-        <v>1360</v>
+        <v>1338</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -26372,10 +26306,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="F708" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -26401,10 +26335,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1363</v>
+        <v>1341</v>
       </c>
       <c r="F709" t="s">
-        <v>1364</v>
+        <v>1342</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -26430,10 +26364,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="F710" t="s">
-        <v>1366</v>
+        <v>1344</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -26459,10 +26393,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="F711" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -26488,10 +26422,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="F712" t="s">
-        <v>1370</v>
+        <v>1348</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -26517,10 +26451,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1371</v>
+        <v>1349</v>
       </c>
       <c r="F713" t="s">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -26546,10 +26480,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="F714" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -26575,10 +26509,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1375</v>
+        <v>1353</v>
       </c>
       <c r="F715" t="s">
-        <v>1376</v>
+        <v>1354</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -26604,10 +26538,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1377</v>
+        <v>1355</v>
       </c>
       <c r="F716" t="s">
-        <v>1378</v>
+        <v>1356</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -26633,10 +26567,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1379</v>
+        <v>1357</v>
       </c>
       <c r="F717" t="s">
-        <v>1380</v>
+        <v>1358</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -26662,10 +26596,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="F718" t="s">
-        <v>1382</v>
+        <v>1360</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -26691,10 +26625,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="F719" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -26720,10 +26654,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="F720" t="s">
-        <v>1386</v>
+        <v>1364</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -26749,10 +26683,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="F721" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -26778,10 +26712,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="F722" t="s">
-        <v>1390</v>
+        <v>1368</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -26807,10 +26741,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1391</v>
+        <v>1369</v>
       </c>
       <c r="F723" t="s">
-        <v>1392</v>
+        <v>1370</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -26836,10 +26770,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1393</v>
+        <v>1371</v>
       </c>
       <c r="F724" t="s">
-        <v>1394</v>
+        <v>1372</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -26865,10 +26799,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1395</v>
+        <v>1373</v>
       </c>
       <c r="F725" t="s">
-        <v>1396</v>
+        <v>1374</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -26894,10 +26828,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="F726" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -26923,10 +26857,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="F727" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -26952,10 +26886,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="F728" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -26981,10 +26915,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="F729" t="s">
-        <v>1404</v>
+        <v>1382</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -27010,10 +26944,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1405</v>
+        <v>1383</v>
       </c>
       <c r="F730" t="s">
-        <v>1406</v>
+        <v>1384</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -27039,10 +26973,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1407</v>
+        <v>1385</v>
       </c>
       <c r="F731" t="s">
-        <v>1408</v>
+        <v>1386</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -27068,10 +27002,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1409</v>
+        <v>1387</v>
       </c>
       <c r="F732" t="s">
-        <v>1410</v>
+        <v>1388</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -27097,10 +27031,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1411</v>
+        <v>1389</v>
       </c>
       <c r="F733" t="s">
-        <v>1412</v>
+        <v>1390</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -27126,10 +27060,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1413</v>
+        <v>1391</v>
       </c>
       <c r="F734" t="s">
-        <v>1414</v>
+        <v>1392</v>
       </c>
       <c r="G734" t="n">
         <v>6</v>
@@ -27155,10 +27089,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1415</v>
+        <v>1393</v>
       </c>
       <c r="F735" t="s">
-        <v>1416</v>
+        <v>1394</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -27184,10 +27118,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1417</v>
+        <v>1395</v>
       </c>
       <c r="F736" t="s">
-        <v>1418</v>
+        <v>1396</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -27213,10 +27147,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="F737" t="s">
-        <v>1420</v>
+        <v>1398</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -27242,10 +27176,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="F738" t="s">
-        <v>1422</v>
+        <v>1400</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -27271,10 +27205,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1423</v>
+        <v>1401</v>
       </c>
       <c r="F739" t="s">
-        <v>1424</v>
+        <v>1402</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -27300,10 +27234,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1425</v>
+        <v>1403</v>
       </c>
       <c r="F740" t="s">
-        <v>1426</v>
+        <v>1404</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -27329,10 +27263,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1427</v>
+        <v>1405</v>
       </c>
       <c r="F741" t="s">
-        <v>1428</v>
+        <v>1406</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -27358,10 +27292,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1429</v>
+        <v>1407</v>
       </c>
       <c r="F742" t="s">
-        <v>1430</v>
+        <v>1408</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -27387,10 +27321,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1431</v>
+        <v>1409</v>
       </c>
       <c r="F743" t="s">
-        <v>1432</v>
+        <v>1410</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -27416,10 +27350,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1433</v>
+        <v>1411</v>
       </c>
       <c r="F744" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -27445,10 +27379,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1435</v>
+        <v>1413</v>
       </c>
       <c r="F745" t="s">
-        <v>1436</v>
+        <v>1414</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -27474,10 +27408,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1437</v>
+        <v>1415</v>
       </c>
       <c r="F746" t="s">
-        <v>1438</v>
+        <v>1416</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -27503,10 +27437,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1439</v>
+        <v>1417</v>
       </c>
       <c r="F747" t="s">
-        <v>1440</v>
+        <v>1418</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -27532,10 +27466,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1441</v>
+        <v>1419</v>
       </c>
       <c r="F748" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -27561,10 +27495,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1443</v>
+        <v>1421</v>
       </c>
       <c r="F749" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -27590,10 +27524,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="F750" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -27619,10 +27553,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1447</v>
+        <v>1425</v>
       </c>
       <c r="F751" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -27648,10 +27582,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="F752" t="s">
-        <v>1450</v>
+        <v>1428</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -27677,10 +27611,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="F753" t="s">
-        <v>1452</v>
+        <v>1430</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -27706,10 +27640,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1453</v>
+        <v>1431</v>
       </c>
       <c r="F754" t="s">
-        <v>1454</v>
+        <v>1432</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -27735,10 +27669,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1455</v>
+        <v>1433</v>
       </c>
       <c r="F755" t="s">
-        <v>1456</v>
+        <v>1434</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -27764,10 +27698,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1457</v>
+        <v>1435</v>
       </c>
       <c r="F756" t="s">
-        <v>1458</v>
+        <v>1436</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -27793,10 +27727,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1459</v>
+        <v>1437</v>
       </c>
       <c r="F757" t="s">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -27822,10 +27756,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1461</v>
+        <v>1439</v>
       </c>
       <c r="F758" t="s">
-        <v>1462</v>
+        <v>1440</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -27851,10 +27785,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1463</v>
+        <v>1441</v>
       </c>
       <c r="F759" t="s">
-        <v>1464</v>
+        <v>1442</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -27880,10 +27814,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1465</v>
+        <v>1443</v>
       </c>
       <c r="F760" t="s">
-        <v>1466</v>
+        <v>1444</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -27909,10 +27843,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1467</v>
+        <v>1445</v>
       </c>
       <c r="F761" t="s">
-        <v>1468</v>
+        <v>1446</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -27938,10 +27872,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1469</v>
+        <v>1447</v>
       </c>
       <c r="F762" t="s">
-        <v>1470</v>
+        <v>1448</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27967,10 +27901,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1471</v>
+        <v>1449</v>
       </c>
       <c r="F763" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -27996,10 +27930,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1473</v>
+        <v>1451</v>
       </c>
       <c r="F764" t="s">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -28025,10 +27959,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="F765" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -28054,10 +27988,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="F766" t="s">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="G766" t="n">
         <v>2</v>
@@ -28083,10 +28017,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1477</v>
+        <v>1455</v>
       </c>
       <c r="F767" t="s">
-        <v>1478</v>
+        <v>1456</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -28112,10 +28046,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1479</v>
+        <v>1457</v>
       </c>
       <c r="F768" t="s">
-        <v>1480</v>
+        <v>1458</v>
       </c>
       <c r="G768" t="n">
         <v>2</v>
@@ -28141,10 +28075,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1481</v>
+        <v>1459</v>
       </c>
       <c r="F769" t="s">
-        <v>1482</v>
+        <v>1460</v>
       </c>
       <c r="G769" t="n">
         <v>2</v>
@@ -28170,10 +28104,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1483</v>
+        <v>1461</v>
       </c>
       <c r="F770" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -28199,10 +28133,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1485</v>
+        <v>1463</v>
       </c>
       <c r="F771" t="s">
-        <v>1486</v>
+        <v>1464</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -28228,10 +28162,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1487</v>
+        <v>1465</v>
       </c>
       <c r="F772" t="s">
-        <v>1488</v>
+        <v>1466</v>
       </c>
       <c r="G772" t="n">
         <v>7</v>
@@ -28257,10 +28191,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1489</v>
+        <v>1467</v>
       </c>
       <c r="F773" t="s">
-        <v>1490</v>
+        <v>1468</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -28286,10 +28220,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="F774" t="s">
-        <v>1492</v>
+        <v>1470</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -28315,10 +28249,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1493</v>
+        <v>1471</v>
       </c>
       <c r="F775" t="s">
-        <v>1494</v>
+        <v>1472</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -28344,10 +28278,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1495</v>
+        <v>1473</v>
       </c>
       <c r="F776" t="s">
-        <v>1496</v>
+        <v>1474</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -28373,10 +28307,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1497</v>
+        <v>1475</v>
       </c>
       <c r="F777" t="s">
-        <v>1498</v>
+        <v>1476</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -28402,10 +28336,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="F778" t="s">
-        <v>1500</v>
+        <v>1478</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -28431,10 +28365,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1501</v>
+        <v>1479</v>
       </c>
       <c r="F779" t="s">
-        <v>1502</v>
+        <v>1480</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -28460,10 +28394,10 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1503</v>
+        <v>1481</v>
       </c>
       <c r="F780" t="s">
-        <v>1504</v>
+        <v>1482</v>
       </c>
       <c r="G780" t="n">
         <v>1</v>
@@ -28489,10 +28423,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1505</v>
+        <v>1483</v>
       </c>
       <c r="F781" t="s">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -28518,10 +28452,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1507</v>
+        <v>1485</v>
       </c>
       <c r="F782" t="s">
-        <v>1508</v>
+        <v>1486</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -28547,10 +28481,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1509</v>
+        <v>1487</v>
       </c>
       <c r="F783" t="s">
-        <v>1510</v>
+        <v>1488</v>
       </c>
       <c r="G783" t="n">
         <v>2</v>
@@ -28576,10 +28510,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1511</v>
+        <v>1489</v>
       </c>
       <c r="F784" t="s">
-        <v>1512</v>
+        <v>1490</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -28605,10 +28539,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1513</v>
+        <v>1491</v>
       </c>
       <c r="F785" t="s">
-        <v>1514</v>
+        <v>1492</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -28634,10 +28568,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1515</v>
+        <v>1493</v>
       </c>
       <c r="F786" t="s">
-        <v>1516</v>
+        <v>1494</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -28663,10 +28597,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1517</v>
+        <v>1495</v>
       </c>
       <c r="F787" t="s">
-        <v>1518</v>
+        <v>1496</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -28692,10 +28626,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="F788" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -28721,10 +28655,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1521</v>
+        <v>1499</v>
       </c>
       <c r="F789" t="s">
-        <v>1522</v>
+        <v>1500</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -28750,10 +28684,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1523</v>
+        <v>1501</v>
       </c>
       <c r="F790" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -28779,10 +28713,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1525</v>
+        <v>1503</v>
       </c>
       <c r="F791" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -28808,10 +28742,10 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="F792" t="s">
-        <v>1528</v>
+        <v>1506</v>
       </c>
       <c r="G792" t="n">
         <v>1</v>
@@ -28837,10 +28771,10 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="F793" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="G793" t="n">
         <v>1</v>
@@ -28866,10 +28800,10 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1531</v>
+        <v>1509</v>
       </c>
       <c r="F794" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="G794" t="n">
         <v>1</v>
@@ -28895,10 +28829,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1533</v>
+        <v>1511</v>
       </c>
       <c r="F795" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -28924,10 +28858,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1535</v>
+        <v>1513</v>
       </c>
       <c r="F796" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -28953,10 +28887,10 @@
         <v>796</v>
       </c>
       <c r="E797" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="F797" t="s">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="G797" t="n">
         <v>1</v>
@@ -28982,10 +28916,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="F798" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -29011,10 +28945,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="F799" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -29040,10 +28974,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
       <c r="F800" t="s">
-        <v>1542</v>
+        <v>1520</v>
       </c>
       <c r="G800" t="n">
         <v>1</v>
@@ -29069,10 +29003,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="F801" t="s">
-        <v>1544</v>
+        <v>1522</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -29098,10 +29032,10 @@
         <v>801</v>
       </c>
       <c r="E802" t="s">
-        <v>1545</v>
+        <v>1523</v>
       </c>
       <c r="F802" t="s">
-        <v>1546</v>
+        <v>1524</v>
       </c>
       <c r="G802" t="n">
         <v>1</v>
@@ -29127,10 +29061,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1547</v>
+        <v>1525</v>
       </c>
       <c r="F803" t="s">
-        <v>1548</v>
+        <v>1526</v>
       </c>
       <c r="G803" t="n">
         <v>2</v>
@@ -29156,10 +29090,10 @@
         <v>803</v>
       </c>
       <c r="E804" t="s">
-        <v>1549</v>
+        <v>1527</v>
       </c>
       <c r="F804" t="s">
-        <v>1550</v>
+        <v>1528</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -29185,10 +29119,10 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1551</v>
+        <v>1529</v>
       </c>
       <c r="F805" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="G805" t="n">
         <v>1</v>
@@ -29214,10 +29148,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1553</v>
+        <v>1531</v>
       </c>
       <c r="F806" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -29243,10 +29177,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
       <c r="F807" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -29272,10 +29206,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
       <c r="F808" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -29301,10 +29235,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="F809" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -29330,10 +29264,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="F810" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -29359,10 +29293,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="F811" t="s">
-        <v>1564</v>
+        <v>1542</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -29388,10 +29322,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1097</v>
+        <v>1075</v>
       </c>
       <c r="F812" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -29417,10 +29351,10 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1565</v>
+        <v>1543</v>
       </c>
       <c r="F813" t="s">
-        <v>1566</v>
+        <v>1544</v>
       </c>
       <c r="G813" t="n">
         <v>1</v>
@@ -29446,10 +29380,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1567</v>
+        <v>1545</v>
       </c>
       <c r="F814" t="s">
-        <v>1568</v>
+        <v>1546</v>
       </c>
       <c r="G814" t="n">
         <v>1</v>
@@ -29475,10 +29409,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1569</v>
+        <v>1547</v>
       </c>
       <c r="F815" t="s">
-        <v>1570</v>
+        <v>1548</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -29504,10 +29438,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1571</v>
+        <v>1549</v>
       </c>
       <c r="F816" t="s">
-        <v>1572</v>
+        <v>1550</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -29533,10 +29467,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1573</v>
+        <v>1551</v>
       </c>
       <c r="F817" t="s">
-        <v>1574</v>
+        <v>1552</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -29562,10 +29496,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1575</v>
+        <v>1553</v>
       </c>
       <c r="F818" t="s">
-        <v>1576</v>
+        <v>1554</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -29591,10 +29525,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1577</v>
+        <v>1555</v>
       </c>
       <c r="F819" t="s">
-        <v>1578</v>
+        <v>1556</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -29620,10 +29554,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1579</v>
+        <v>1557</v>
       </c>
       <c r="F820" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="G820" t="n">
         <v>4</v>
@@ -29649,10 +29583,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1581</v>
+        <v>1559</v>
       </c>
       <c r="F821" t="s">
-        <v>1582</v>
+        <v>1560</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -29678,10 +29612,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1583</v>
+        <v>1561</v>
       </c>
       <c r="F822" t="s">
-        <v>1584</v>
+        <v>1562</v>
       </c>
       <c r="G822" t="n">
         <v>5</v>
@@ -29707,10 +29641,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1585</v>
+        <v>1563</v>
       </c>
       <c r="F823" t="s">
-        <v>1586</v>
+        <v>1564</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -29736,10 +29670,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1587</v>
+        <v>1565</v>
       </c>
       <c r="F824" t="s">
-        <v>1588</v>
+        <v>1566</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -29765,10 +29699,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="F825" t="s">
-        <v>1590</v>
+        <v>1568</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -29794,10 +29728,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1591</v>
+        <v>1569</v>
       </c>
       <c r="F826" t="s">
-        <v>1592</v>
+        <v>1570</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -29823,10 +29757,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1593</v>
+        <v>1571</v>
       </c>
       <c r="F827" t="s">
-        <v>1594</v>
+        <v>1572</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -29852,10 +29786,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="F828" t="s">
-        <v>1596</v>
+        <v>1574</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -29881,10 +29815,10 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1597</v>
+        <v>1575</v>
       </c>
       <c r="F829" t="s">
-        <v>1598</v>
+        <v>1576</v>
       </c>
       <c r="G829" t="n">
         <v>1</v>
@@ -29910,10 +29844,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1599</v>
+        <v>1577</v>
       </c>
       <c r="F830" t="s">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -29939,10 +29873,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1601</v>
+        <v>1579</v>
       </c>
       <c r="F831" t="s">
-        <v>1602</v>
+        <v>1580</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -29968,10 +29902,10 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1603</v>
+        <v>1581</v>
       </c>
       <c r="F832" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -29997,10 +29931,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1605</v>
+        <v>1583</v>
       </c>
       <c r="F833" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -30026,10 +29960,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="F834" t="s">
-        <v>1608</v>
+        <v>1586</v>
       </c>
       <c r="G834" t="n">
         <v>1</v>
@@ -30055,10 +29989,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1609</v>
+        <v>1587</v>
       </c>
       <c r="F835" t="s">
-        <v>1610</v>
+        <v>1588</v>
       </c>
       <c r="G835" t="n">
         <v>1</v>
@@ -30084,10 +30018,10 @@
         <v>835</v>
       </c>
       <c r="E836" t="s">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="F836" t="s">
-        <v>1612</v>
+        <v>1590</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -30113,10 +30047,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1613</v>
+        <v>1591</v>
       </c>
       <c r="F837" t="s">
-        <v>1614</v>
+        <v>1592</v>
       </c>
       <c r="G837" t="n">
         <v>1</v>
@@ -30142,10 +30076,10 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1615</v>
+        <v>1593</v>
       </c>
       <c r="F838" t="s">
-        <v>1616</v>
+        <v>1594</v>
       </c>
       <c r="G838" t="n">
         <v>1</v>
@@ -30171,10 +30105,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="F839" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -30200,10 +30134,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1619</v>
+        <v>1597</v>
       </c>
       <c r="F840" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -30229,10 +30163,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="F841" t="s">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -30258,10 +30192,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1623</v>
+        <v>1601</v>
       </c>
       <c r="F842" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -30287,10 +30221,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="F843" t="s">
-        <v>1626</v>
+        <v>1604</v>
       </c>
       <c r="G843" t="n">
         <v>1</v>
@@ -30316,10 +30250,10 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="F844" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="G844" t="n">
         <v>1</v>
@@ -30345,10 +30279,10 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1629</v>
+        <v>1607</v>
       </c>
       <c r="F845" t="s">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -30374,10 +30308,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1631</v>
+        <v>1609</v>
       </c>
       <c r="F846" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -30403,10 +30337,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="F847" t="s">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -30432,10 +30366,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
       <c r="F848" t="s">
-        <v>1636</v>
+        <v>1614</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -30461,10 +30395,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
       <c r="F849" t="s">
-        <v>1638</v>
+        <v>1616</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -30490,10 +30424,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
       <c r="F850" t="s">
-        <v>1640</v>
+        <v>1618</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -30519,10 +30453,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1641</v>
+        <v>1619</v>
       </c>
       <c r="F851" t="s">
-        <v>1642</v>
+        <v>1620</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -30548,10 +30482,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1643</v>
+        <v>1621</v>
       </c>
       <c r="F852" t="s">
-        <v>1644</v>
+        <v>1622</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -30577,10 +30511,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1645</v>
+        <v>1623</v>
       </c>
       <c r="F853" t="s">
-        <v>1646</v>
+        <v>1624</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -30606,10 +30540,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1647</v>
+        <v>1625</v>
       </c>
       <c r="F854" t="s">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -30635,10 +30569,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1649</v>
+        <v>1627</v>
       </c>
       <c r="F855" t="s">
-        <v>1650</v>
+        <v>1628</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -30664,10 +30598,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="F856" t="s">
-        <v>1652</v>
+        <v>1630</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -30693,10 +30627,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1653</v>
+        <v>1631</v>
       </c>
       <c r="F857" t="s">
-        <v>1654</v>
+        <v>1632</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -30722,10 +30656,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1655</v>
+        <v>1633</v>
       </c>
       <c r="F858" t="s">
-        <v>1656</v>
+        <v>1634</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -30751,10 +30685,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1657</v>
+        <v>1635</v>
       </c>
       <c r="F859" t="s">
-        <v>1658</v>
+        <v>1636</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -30780,10 +30714,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1659</v>
+        <v>1637</v>
       </c>
       <c r="F860" t="s">
-        <v>1660</v>
+        <v>1638</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -30838,10 +30772,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
       <c r="F862" t="s">
-        <v>1662</v>
+        <v>1640</v>
       </c>
       <c r="G862" t="n">
         <v>6</v>
@@ -30867,10 +30801,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
       <c r="F863" t="s">
-        <v>1664</v>
+        <v>1642</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -30896,10 +30830,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1665</v>
+        <v>1643</v>
       </c>
       <c r="F864" t="s">
-        <v>1666</v>
+        <v>1644</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -30925,10 +30859,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1667</v>
+        <v>1645</v>
       </c>
       <c r="F865" t="s">
-        <v>1668</v>
+        <v>1646</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -30954,10 +30888,10 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1669</v>
+        <v>1647</v>
       </c>
       <c r="F866" t="s">
-        <v>1670</v>
+        <v>1648</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -30983,10 +30917,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1671</v>
+        <v>1649</v>
       </c>
       <c r="F867" t="s">
-        <v>1672</v>
+        <v>1650</v>
       </c>
       <c r="G867" t="n">
         <v>2</v>
@@ -31012,10 +30946,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1673</v>
+        <v>1651</v>
       </c>
       <c r="F868" t="s">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -31041,10 +30975,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1675</v>
+        <v>1653</v>
       </c>
       <c r="F869" t="s">
-        <v>1676</v>
+        <v>1654</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -31070,10 +31004,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1677</v>
+        <v>1655</v>
       </c>
       <c r="F870" t="s">
-        <v>1678</v>
+        <v>1656</v>
       </c>
       <c r="G870" t="n">
         <v>5</v>
@@ -31099,10 +31033,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1679</v>
+        <v>1657</v>
       </c>
       <c r="F871" t="s">
-        <v>1680</v>
+        <v>1658</v>
       </c>
       <c r="G871" t="n">
         <v>2</v>
@@ -31128,10 +31062,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1681</v>
+        <v>1659</v>
       </c>
       <c r="F872" t="s">
-        <v>1682</v>
+        <v>1660</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -31157,10 +31091,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1683</v>
+        <v>1661</v>
       </c>
       <c r="F873" t="s">
-        <v>1684</v>
+        <v>1662</v>
       </c>
       <c r="G873" t="n">
         <v>3</v>
@@ -31186,10 +31120,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1685</v>
+        <v>1663</v>
       </c>
       <c r="F874" t="s">
-        <v>1686</v>
+        <v>1664</v>
       </c>
       <c r="G874" t="n">
         <v>2</v>
@@ -31215,10 +31149,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1687</v>
+        <v>1665</v>
       </c>
       <c r="F875" t="s">
-        <v>1688</v>
+        <v>1666</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -31244,10 +31178,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1689</v>
+        <v>1667</v>
       </c>
       <c r="F876" t="s">
-        <v>1690</v>
+        <v>1668</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -31273,10 +31207,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1691</v>
+        <v>1669</v>
       </c>
       <c r="F877" t="s">
-        <v>1692</v>
+        <v>1670</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -31302,10 +31236,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1693</v>
+        <v>1671</v>
       </c>
       <c r="F878" t="s">
-        <v>1694</v>
+        <v>1672</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -31331,10 +31265,10 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1695</v>
+        <v>1673</v>
       </c>
       <c r="F879" t="s">
-        <v>1696</v>
+        <v>1674</v>
       </c>
       <c r="G879" t="n">
         <v>1</v>
@@ -31360,10 +31294,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1697</v>
+        <v>1675</v>
       </c>
       <c r="F880" t="s">
-        <v>1698</v>
+        <v>1676</v>
       </c>
       <c r="G880" t="n">
         <v>8</v>
@@ -31389,10 +31323,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1699</v>
+        <v>1677</v>
       </c>
       <c r="F881" t="s">
-        <v>1700</v>
+        <v>1678</v>
       </c>
       <c r="G881" t="n">
         <v>3</v>
@@ -31418,10 +31352,10 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1701</v>
+        <v>1679</v>
       </c>
       <c r="F882" t="s">
-        <v>1702</v>
+        <v>1680</v>
       </c>
       <c r="G882" t="n">
         <v>1</v>
@@ -31447,10 +31381,10 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1703</v>
+        <v>1681</v>
       </c>
       <c r="F883" t="s">
-        <v>1704</v>
+        <v>1682</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -31476,10 +31410,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1705</v>
+        <v>1683</v>
       </c>
       <c r="F884" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="G884" t="n">
         <v>1</v>
@@ -31505,10 +31439,10 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1707</v>
+        <v>1685</v>
       </c>
       <c r="F885" t="s">
-        <v>1708</v>
+        <v>1686</v>
       </c>
       <c r="G885" t="n">
         <v>1</v>
@@ -31534,10 +31468,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1709</v>
+        <v>1687</v>
       </c>
       <c r="F886" t="s">
-        <v>1710</v>
+        <v>1688</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -31563,10 +31497,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1711</v>
+        <v>1689</v>
       </c>
       <c r="F887" t="s">
-        <v>1712</v>
+        <v>1690</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -31592,10 +31526,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1713</v>
+        <v>1691</v>
       </c>
       <c r="F888" t="s">
-        <v>1714</v>
+        <v>1692</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -31621,10 +31555,10 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="F889" t="s">
-        <v>1716</v>
+        <v>1694</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -31650,10 +31584,10 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1717</v>
+        <v>1695</v>
       </c>
       <c r="F890" t="s">
-        <v>1718</v>
+        <v>1696</v>
       </c>
       <c r="G890" t="n">
         <v>1</v>
@@ -31679,10 +31613,10 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1719</v>
+        <v>1697</v>
       </c>
       <c r="F891" t="s">
-        <v>1720</v>
+        <v>1698</v>
       </c>
       <c r="G891" t="n">
         <v>1</v>
@@ -31708,10 +31642,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1721</v>
+        <v>1699</v>
       </c>
       <c r="F892" t="s">
-        <v>1722</v>
+        <v>1700</v>
       </c>
       <c r="G892" t="n">
         <v>2</v>
@@ -31737,10 +31671,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1723</v>
+        <v>1701</v>
       </c>
       <c r="F893" t="s">
-        <v>1724</v>
+        <v>1702</v>
       </c>
       <c r="G893" t="n">
         <v>2</v>
@@ -31766,10 +31700,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1725</v>
+        <v>1703</v>
       </c>
       <c r="F894" t="s">
-        <v>1726</v>
+        <v>1704</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -31795,10 +31729,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1727</v>
+        <v>1705</v>
       </c>
       <c r="F895" t="s">
-        <v>1728</v>
+        <v>1706</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -31824,10 +31758,10 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1729</v>
+        <v>1707</v>
       </c>
       <c r="F896" t="s">
-        <v>1730</v>
+        <v>1708</v>
       </c>
       <c r="G896" t="n">
         <v>1</v>
@@ -31853,10 +31787,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1731</v>
+        <v>1709</v>
       </c>
       <c r="F897" t="s">
-        <v>1732</v>
+        <v>1710</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -31882,10 +31816,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>1733</v>
+        <v>1711</v>
       </c>
       <c r="F898" t="s">
-        <v>1734</v>
+        <v>1712</v>
       </c>
       <c r="G898" t="n">
         <v>2</v>
@@ -31911,10 +31845,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1735</v>
+        <v>1713</v>
       </c>
       <c r="F899" t="s">
-        <v>1736</v>
+        <v>1714</v>
       </c>
       <c r="G899" t="n">
         <v>7</v>
@@ -31940,10 +31874,10 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1737</v>
+        <v>1715</v>
       </c>
       <c r="F900" t="s">
-        <v>1738</v>
+        <v>1716</v>
       </c>
       <c r="G900" t="n">
         <v>1</v>
@@ -31969,10 +31903,10 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1739</v>
+        <v>1717</v>
       </c>
       <c r="F901" t="s">
-        <v>1740</v>
+        <v>1718</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -31998,10 +31932,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1741</v>
+        <v>1719</v>
       </c>
       <c r="F902" t="s">
-        <v>1742</v>
+        <v>1720</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -32027,10 +31961,10 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>1743</v>
+        <v>1721</v>
       </c>
       <c r="F903" t="s">
-        <v>1744</v>
+        <v>1722</v>
       </c>
       <c r="G903" t="n">
         <v>1</v>
@@ -32056,10 +31990,10 @@
         <v>903</v>
       </c>
       <c r="E904" t="s">
-        <v>1745</v>
+        <v>1723</v>
       </c>
       <c r="F904" t="s">
-        <v>1746</v>
+        <v>1724</v>
       </c>
       <c r="G904" t="n">
         <v>1</v>
@@ -32085,10 +32019,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1747</v>
+        <v>1725</v>
       </c>
       <c r="F905" t="s">
-        <v>1748</v>
+        <v>1726</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -32114,10 +32048,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1749</v>
+        <v>1727</v>
       </c>
       <c r="F906" t="s">
-        <v>1750</v>
+        <v>1728</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -32143,10 +32077,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1751</v>
+        <v>1729</v>
       </c>
       <c r="F907" t="s">
-        <v>1752</v>
+        <v>1730</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -32172,10 +32106,10 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1753</v>
+        <v>1731</v>
       </c>
       <c r="F908" t="s">
-        <v>1754</v>
+        <v>1732</v>
       </c>
       <c r="G908" t="n">
         <v>1</v>
@@ -32201,10 +32135,10 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1755</v>
+        <v>1733</v>
       </c>
       <c r="F909" t="s">
-        <v>1756</v>
+        <v>1734</v>
       </c>
       <c r="G909" t="n">
         <v>1</v>
@@ -32230,10 +32164,10 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1757</v>
+        <v>1735</v>
       </c>
       <c r="F910" t="s">
-        <v>1758</v>
+        <v>1736</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -32259,10 +32193,10 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>1759</v>
+        <v>1737</v>
       </c>
       <c r="F911" t="s">
-        <v>1760</v>
+        <v>1738</v>
       </c>
       <c r="G911" t="n">
         <v>1</v>
@@ -32288,10 +32222,10 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1761</v>
+        <v>1739</v>
       </c>
       <c r="F912" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="G912" t="n">
         <v>1</v>
@@ -32317,10 +32251,10 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>1763</v>
+        <v>1741</v>
       </c>
       <c r="F913" t="s">
-        <v>1764</v>
+        <v>1742</v>
       </c>
       <c r="G913" t="n">
         <v>1</v>
@@ -32346,10 +32280,10 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1765</v>
+        <v>1743</v>
       </c>
       <c r="F914" t="s">
-        <v>1766</v>
+        <v>1744</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -32375,10 +32309,10 @@
         <v>914</v>
       </c>
       <c r="E915" t="s">
-        <v>1767</v>
+        <v>1745</v>
       </c>
       <c r="F915" t="s">
-        <v>1768</v>
+        <v>1746</v>
       </c>
       <c r="G915" t="n">
         <v>1</v>
@@ -32404,10 +32338,10 @@
         <v>915</v>
       </c>
       <c r="E916" t="s">
-        <v>1769</v>
+        <v>1747</v>
       </c>
       <c r="F916" t="s">
-        <v>1770</v>
+        <v>1748</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -32433,10 +32367,10 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>1771</v>
+        <v>1749</v>
       </c>
       <c r="F917" t="s">
-        <v>1772</v>
+        <v>1750</v>
       </c>
       <c r="G917" t="n">
         <v>1</v>
@@ -32462,10 +32396,10 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1773</v>
+        <v>1751</v>
       </c>
       <c r="F918" t="s">
-        <v>1774</v>
+        <v>1752</v>
       </c>
       <c r="G918" t="n">
         <v>1</v>
@@ -32491,10 +32425,10 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1775</v>
+        <v>1753</v>
       </c>
       <c r="F919" t="s">
-        <v>1776</v>
+        <v>1754</v>
       </c>
       <c r="G919" t="n">
         <v>1</v>
@@ -32520,10 +32454,10 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1777</v>
+        <v>1755</v>
       </c>
       <c r="F920" t="s">
-        <v>1778</v>
+        <v>1756</v>
       </c>
       <c r="G920" t="n">
         <v>1</v>
@@ -32549,10 +32483,10 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1779</v>
+        <v>1757</v>
       </c>
       <c r="F921" t="s">
-        <v>1780</v>
+        <v>1758</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -32578,10 +32512,10 @@
         <v>921</v>
       </c>
       <c r="E922" t="s">
-        <v>1781</v>
+        <v>1759</v>
       </c>
       <c r="F922" t="s">
-        <v>1782</v>
+        <v>1760</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -32607,10 +32541,10 @@
         <v>922</v>
       </c>
       <c r="E923" t="s">
-        <v>1783</v>
+        <v>1761</v>
       </c>
       <c r="F923" t="s">
-        <v>1784</v>
+        <v>1762</v>
       </c>
       <c r="G923" t="n">
         <v>1</v>
@@ -32636,10 +32570,10 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>1785</v>
+        <v>1763</v>
       </c>
       <c r="F924" t="s">
-        <v>1786</v>
+        <v>1764</v>
       </c>
       <c r="G924" t="n">
         <v>1</v>
@@ -32665,10 +32599,10 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>1787</v>
+        <v>1765</v>
       </c>
       <c r="F925" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -32694,10 +32628,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>1789</v>
+        <v>1767</v>
       </c>
       <c r="F926" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -32723,10 +32657,10 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1791</v>
+        <v>1769</v>
       </c>
       <c r="F927" t="s">
-        <v>1792</v>
+        <v>1770</v>
       </c>
       <c r="G927" t="n">
         <v>1</v>
@@ -32752,10 +32686,10 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1793</v>
+        <v>1771</v>
       </c>
       <c r="F928" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -32781,10 +32715,10 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="F929" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -32810,10 +32744,10 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1797</v>
+        <v>1775</v>
       </c>
       <c r="F930" t="s">
-        <v>1798</v>
+        <v>1776</v>
       </c>
       <c r="G930" t="n">
         <v>1</v>
@@ -32839,10 +32773,10 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>1799</v>
+        <v>1777</v>
       </c>
       <c r="F931" t="s">
-        <v>1800</v>
+        <v>1778</v>
       </c>
       <c r="G931" t="n">
         <v>1</v>
@@ -32868,10 +32802,10 @@
         <v>931</v>
       </c>
       <c r="E932" t="s">
-        <v>1801</v>
+        <v>1779</v>
       </c>
       <c r="F932" t="s">
-        <v>1802</v>
+        <v>1780</v>
       </c>
       <c r="G932" t="n">
         <v>1</v>
@@ -32897,10 +32831,10 @@
         <v>932</v>
       </c>
       <c r="E933" t="s">
-        <v>1803</v>
+        <v>1781</v>
       </c>
       <c r="F933" t="s">
-        <v>1804</v>
+        <v>1782</v>
       </c>
       <c r="G933" t="n">
         <v>1</v>
@@ -32926,10 +32860,10 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>1805</v>
+        <v>1783</v>
       </c>
       <c r="F934" t="s">
-        <v>1806</v>
+        <v>1784</v>
       </c>
       <c r="G934" t="n">
         <v>1</v>
@@ -32955,10 +32889,10 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
-        <v>1807</v>
+        <v>1785</v>
       </c>
       <c r="F935" t="s">
-        <v>1808</v>
+        <v>1786</v>
       </c>
       <c r="G935" t="n">
         <v>1</v>
@@ -32984,10 +32918,10 @@
         <v>935</v>
       </c>
       <c r="E936" t="s">
-        <v>1809</v>
+        <v>1787</v>
       </c>
       <c r="F936" t="s">
-        <v>1810</v>
+        <v>1788</v>
       </c>
       <c r="G936" t="n">
         <v>1</v>
@@ -33013,10 +32947,10 @@
         <v>936</v>
       </c>
       <c r="E937" t="s">
-        <v>1811</v>
+        <v>1789</v>
       </c>
       <c r="F937" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G937" t="n">
         <v>1</v>
@@ -33042,10 +32976,10 @@
         <v>937</v>
       </c>
       <c r="E938" t="s">
-        <v>1813</v>
+        <v>1791</v>
       </c>
       <c r="F938" t="s">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="G938" t="n">
         <v>1</v>
@@ -33071,10 +33005,10 @@
         <v>938</v>
       </c>
       <c r="E939" t="s">
-        <v>1815</v>
+        <v>1793</v>
       </c>
       <c r="F939" t="s">
-        <v>1816</v>
+        <v>1794</v>
       </c>
       <c r="G939" t="n">
         <v>3</v>
@@ -33100,10 +33034,10 @@
         <v>939</v>
       </c>
       <c r="E940" t="s">
-        <v>1817</v>
+        <v>1795</v>
       </c>
       <c r="F940" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="G940" t="n">
         <v>1</v>
@@ -33129,10 +33063,10 @@
         <v>940</v>
       </c>
       <c r="E941" t="s">
-        <v>1819</v>
+        <v>1797</v>
       </c>
       <c r="F941" t="s">
-        <v>1820</v>
+        <v>1798</v>
       </c>
       <c r="G941" t="n">
         <v>1</v>
@@ -33158,10 +33092,10 @@
         <v>941</v>
       </c>
       <c r="E942" t="s">
-        <v>1821</v>
+        <v>1799</v>
       </c>
       <c r="F942" t="s">
-        <v>1822</v>
+        <v>1800</v>
       </c>
       <c r="G942" t="n">
         <v>1</v>
@@ -33187,10 +33121,10 @@
         <v>942</v>
       </c>
       <c r="E943" t="s">
-        <v>1823</v>
+        <v>1801</v>
       </c>
       <c r="F943" t="s">
-        <v>1824</v>
+        <v>1802</v>
       </c>
       <c r="G943" t="n">
         <v>1</v>
@@ -33216,10 +33150,10 @@
         <v>943</v>
       </c>
       <c r="E944" t="s">
-        <v>1825</v>
+        <v>1803</v>
       </c>
       <c r="F944" t="s">
-        <v>1826</v>
+        <v>1804</v>
       </c>
       <c r="G944" t="n">
         <v>1</v>
@@ -33245,10 +33179,10 @@
         <v>944</v>
       </c>
       <c r="E945" t="s">
-        <v>1827</v>
+        <v>1805</v>
       </c>
       <c r="F945" t="s">
-        <v>1828</v>
+        <v>1806</v>
       </c>
       <c r="G945" t="n">
         <v>1</v>
